--- a/excel_input.xlsx
+++ b/excel_input.xlsx
@@ -259,47 +259,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,507 +556,587 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="7" t="n">
         <v>91</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <v>88</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="8" t="n">
         <v>84</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>92.7272727272727</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="n">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="n">
         <v>92</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="10" t="n">
         <v>77</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>71</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <v>78.1818181818182</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="n">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="n">
         <v>67</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <v>75</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>76</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="10" t="n">
         <v>74.5454545454545</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="n">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="n">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="7" t="n">
+        <v>52</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <v>88</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>85</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="8" t="n">
         <v>84</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="8" t="n">
         <v>78</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="10" t="n">
         <v>80.9090909090909</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="n">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="n">
         <v>82</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="n">
+        <v>83</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="10" t="n">
         <v>82</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="10" t="n">
         <v>84.5454545454545</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="n">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="n">
         <v>67</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="7" t="n">
+        <v>54</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <v>77</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>83</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>86</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="10" t="n">
         <v>51.8181818181818</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="n">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="10" t="n">
         <v>79</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="8" t="n">
         <v>88</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="10" t="n">
         <v>90.9090909090909</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="n">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="n">
+        <v>86</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="10" t="n">
         <v>64</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>62</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <v>78</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="10" t="n">
         <v>75.4545454545455</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="n">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="6"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7" t="n">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="10" t="n">
         <v>78.1818181818182</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="n">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="6"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="n">
+        <v>88</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="10" t="n">
         <v>75</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="8" t="n">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="10" t="n">
         <v>56.3636363636364</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="n">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7" t="n">
+        <v>59</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="7" t="n">
         <v>62</v>
       </c>
       <c r="E13" s="11" t="n">
@@ -1065,110 +1145,134 @@
       <c r="F13" s="11" t="n">
         <v>65</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="10" t="n">
         <v>73.6363636363636</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="n">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="10" t="n">
         <v>80</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>68</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="10" t="n">
         <v>65.4545454545455</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="10" t="n">
         <v>80</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>85</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="n">
         <v>84</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="10" t="n">
         <v>83.6363636363636</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="n">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="n">
         <v>87</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7" t="n">
+        <v>62</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="10" t="n">
         <v>66</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>66</v>
       </c>
       <c r="E16" s="11" t="n">
@@ -1177,242 +1281,298 @@
       <c r="F16" s="11" t="n">
         <v>82</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="10" t="n">
         <v>73.6363636363636</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="n">
+        <v>93</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="10" t="n">
         <v>79</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>77</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="8" t="n">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="10" t="n">
         <v>74.5454545454545</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="n">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="n">
         <v>77</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>82</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="10" t="n">
         <v>58</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="8" t="n">
         <v>77</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="10" t="n">
         <v>76.3636363636364</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="n">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>83</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7" t="n">
+        <v>65</v>
+      </c>
+      <c r="P18" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="10" t="n">
         <v>89</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>82</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="8" t="n">
         <v>81</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="10" t="n">
         <v>85.4545454545455</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="P19" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="10" t="n">
         <v>87</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>87</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="10" t="n">
         <v>89.0909090909091</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="n">
+        <v>97</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7" t="n">
+        <v>67</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="10" t="n">
         <v>66</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="11" t="n">
         <v>70</v>
       </c>
       <c r="F21" s="11" t="n">
         <v>77</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="10" t="n">
         <v>67.2727272727273</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="n">
+        <v>98</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>86</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7" t="n">
+        <v>68</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="7" t="n">
         <v>74</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="8" t="n">
         <v>84</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="10" t="n">
         <v>69.0909090909091</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="n">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="6"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="P22" s="7" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
